--- a/doc/week8/ding.xlsx
+++ b/doc/week8/ding.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="ding" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -577,9 +578,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,122 +771,200 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11197945769349728"/>
+                  <c:y val="-0.28727861816290001"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ding!$F$3:$F$19</c:f>
+              <c:f>ding!$D$3:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>23.409399821439251</c:v>
+                  <c:v>-53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.596747752497688</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.95449840010015</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.180339887498949</c:v>
+                  <c:v>-53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.615528128088304</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2462112512353212</c:v>
+                  <c:v>-53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.77722635447622</c:v>
+                  <c:v>-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.090722034374522</c:v>
+                  <c:v>-56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.068883707497267</c:v>
+                  <c:v>-55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.05124837953327</c:v>
+                  <c:v>-66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.382023926967726</c:v>
+                  <c:v>-64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.362442142665635</c:v>
+                  <c:v>-66</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.038447325030752</c:v>
+                  <c:v>-68</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.330343736592525</c:v>
+                  <c:v>-69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56.462376853972415</c:v>
+                  <c:v>-68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.028163428319047</c:v>
+                  <c:v>-68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.49113419430843</c:v>
+                  <c:v>-69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ding!$D$3:$D$19</c:f>
+              <c:f>ding!$F$3:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>-53</c:v>
+                  <c:v>23.409399821439251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-54</c:v>
+                  <c:v>24.596747752497688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-54</c:v>
+                  <c:v>21.95449840010015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-53</c:v>
+                  <c:v>11.180339887498949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-54</c:v>
+                  <c:v>20.615528128088304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-53</c:v>
+                  <c:v>8.2462112512353212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-59</c:v>
+                  <c:v>44.77722635447622</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-56</c:v>
+                  <c:v>22.090722034374522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-55</c:v>
+                  <c:v>29.068883707497267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-66</c:v>
+                  <c:v>39.05124837953327</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-64</c:v>
+                  <c:v>43.382023926967726</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-66</c:v>
+                  <c:v>55.362442142665635</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-68</c:v>
+                  <c:v>52.038447325030752</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-69</c:v>
+                  <c:v>74.330343736592525</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-68</c:v>
+                  <c:v>56.462376853972415</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-68</c:v>
+                  <c:v>71.028163428319047</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-69</c:v>
+                  <c:v>70.49113419430843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -897,11 +979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-951842944"/>
-        <c:axId val="-951845664"/>
+        <c:axId val="-1977223008"/>
+        <c:axId val="-1977228448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-951842944"/>
+        <c:axId val="-1977223008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +1003,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -958,12 +1040,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-951845664"/>
+        <c:crossAx val="-1977228448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-951845664"/>
+        <c:axId val="-1977228448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1065,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1020,7 +1102,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-951842944"/>
+        <c:crossAx val="-1977223008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1629,16 +1711,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1926,374 +2008,378 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>28</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>47</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>-53</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f>SQRT((20-B3)^2+(25-C3)^2)</f>
         <v>23.409399821439251</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>47</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>-54</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F19" si="0">SQRT((20-B4)^2+(25-C4)^2)</f>
         <v>24.596747752497688</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>-54</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>21.95449840010015</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>-53</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>11.180339887498949</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>28</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>-54</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>20.615528128088304</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>-53</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>8.2462112512353212</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>47</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>-59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>44.77722635447622</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>42</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>-56</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>22.090722034374522</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>42</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>-55</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>29.068883707497267</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>59</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>27</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>-66</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>39.05124837953327</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>59</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>6</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>-64</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>43.382023926967726</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>72</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>6</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>-66</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>55.362442142665635</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>72</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>-68</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>52.038447325030752</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>91</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>47</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>-69</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>74.330343736592525</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>72</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>47</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>-68</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>56.462376853972415</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>91</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>27</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>-68</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>71.028163428319047</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>80</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>62</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>-69</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>70.49113419430843</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/week8/ding.xlsx
+++ b/doc/week8/ding.xlsx
@@ -15,7 +15,6 @@
     <sheet name="ding" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -31,9 +30,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>RSSI</t>
-  </si>
-  <si>
     <t>wij</t>
   </si>
   <si>
@@ -95,6 +91,9 @@
   </si>
   <si>
     <t>Afstand</t>
+  </si>
+  <si>
+    <t>RSSI (Sven)</t>
   </si>
 </sst>
 </file>
@@ -979,11 +978,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1977223008"/>
-        <c:axId val="-1977228448"/>
+        <c:axId val="1042622416"/>
+        <c:axId val="1042624048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1977223008"/>
+        <c:axId val="1042622416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,12 +1039,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1977228448"/>
+        <c:crossAx val="1042624048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1977228448"/>
+        <c:axId val="1042624048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1101,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1977223008"/>
+        <c:crossAx val="1042622416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2008,12 +2007,13 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2028,16 +2028,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>20</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>28</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>9</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>9</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>9</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>28</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>28</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>59</v>
@@ -2172,7 +2172,7 @@
         <v>-59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>42</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>42</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>59</v>
@@ -2229,7 +2229,7 @@
         <v>-66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4">
         <v>59</v>
@@ -2250,7 +2250,7 @@
         <v>-64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>72</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4">
         <v>72</v>
@@ -2289,7 +2289,7 @@
         <v>-68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
         <v>91</v>
@@ -2310,7 +2310,7 @@
         <v>-69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>72</v>
@@ -2331,7 +2331,7 @@
         <v>-68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>91</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>80</v>
@@ -2370,7 +2370,7 @@
         <v>-69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>

--- a/doc/week8/ding.xlsx
+++ b/doc/week8/ding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven Konings\Documents\GitHub\Challenges\doc\week8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox\Github\Challenges\doc\week8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>MAC</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>RSSI (Sven)</t>
+  </si>
+  <si>
+    <t>RSI(Michael)</t>
+  </si>
+  <si>
+    <t>ONVINDBAAR</t>
   </si>
 </sst>
 </file>
@@ -910,7 +916,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ding!$F$3:$F$19</c:f>
+              <c:f>ding!$G$3:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -978,11 +984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1042622416"/>
-        <c:axId val="1042624048"/>
+        <c:axId val="-1680125968"/>
+        <c:axId val="-1680126512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1042622416"/>
+        <c:axId val="-1680125968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,12 +1045,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042624048"/>
+        <c:crossAx val="-1680126512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1042624048"/>
+        <c:axId val="-1680126512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1107,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042622416"/>
+        <c:crossAx val="-1680125968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1710,13 +1716,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -2004,20 +2010,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2032,10 +2040,13 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2048,9 +2059,10 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2063,12 +2075,16 @@
       <c r="D3" s="4">
         <v>-53</v>
       </c>
-      <c r="F3" s="3">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>-57</v>
+      </c>
+      <c r="G3" s="3">
         <f>SQRT((20-B3)^2+(25-C3)^2)</f>
         <v>23.409399821439251</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2081,12 +2097,16 @@
       <c r="D4" s="4">
         <v>-54</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F19" si="0">SQRT((20-B4)^2+(25-C4)^2)</f>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>-60</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G19" si="0">SQRT((20-B4)^2+(25-C4)^2)</f>
         <v>24.596747752497688</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2099,12 +2119,16 @@
       <c r="D5" s="4">
         <v>-54</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>-58</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>21.95449840010015</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2117,12 +2141,16 @@
       <c r="D6" s="4">
         <v>-53</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>-61</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>11.180339887498949</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2135,12 +2163,16 @@
       <c r="D7" s="4">
         <v>-54</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>-65</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>20.615528128088304</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2153,12 +2185,16 @@
       <c r="D8" s="4">
         <v>-53</v>
       </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>-52</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>8.2462112512353212</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2174,12 +2210,15 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
+        <v>-75</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>44.77722635447622</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2192,12 +2231,15 @@
       <c r="D10" s="4">
         <v>-56</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
+        <v>-68</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>22.090722034374522</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2210,12 +2252,15 @@
       <c r="D11" s="4">
         <v>-55</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
+        <v>-72</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>29.068883707497267</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2231,12 +2276,15 @@
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
+        <v>-73</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>39.05124837953327</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2252,12 +2300,15 @@
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
+        <v>-75</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>43.382023926967726</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -2270,12 +2321,15 @@
       <c r="D14" s="4">
         <v>-66</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
+        <v>-79</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>55.362442142665635</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2291,12 +2345,15 @@
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
+        <v>-77</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>52.038447325030752</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -2312,12 +2369,15 @@
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>74.330343736592525</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -2333,12 +2393,15 @@
       <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
+        <v>-78</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>56.462376853972415</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2351,12 +2414,15 @@
       <c r="D18" s="4">
         <v>-68</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
+        <v>-77</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>71.028163428319047</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2372,7 +2438,10 @@
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
+        <v>-84</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
         <v>70.49113419430843</v>
       </c>

--- a/doc/week8/ding.xlsx
+++ b/doc/week8/ding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox\Github\Challenges\doc\week8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven Konings\Documents\GitHub\Challenges\doc\week8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>MAC</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>RSI(Michael)</t>
-  </si>
-  <si>
-    <t>ONVINDBAAR</t>
   </si>
 </sst>
 </file>
@@ -661,37 +658,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -702,7 +668,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>rssi</c:v>
+            <c:v>Sven</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -820,8 +786,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11197945769349728"/>
-                  <c:y val="-0.28727861816290001"/>
+                  <c:x val="4.8180919790955436E-2"/>
+                  <c:y val="-0.32370273660356064"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -976,6 +942,206 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Michael</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.2939983183812432E-2"/>
+                  <c:y val="-4.2741243926741737E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ding!$F$3:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ding!$G$3:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>23.409399821439251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.596747752497688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.95449840010015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.180339887498949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.615528128088304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2462112512353212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.77722635447622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.090722034374522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.068883707497267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.05124837953327</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.382023926967726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.362442142665635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.038447325030752</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.330343736592525</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.462376853972415</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.028163428319047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.49113419430843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -984,11 +1150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1680125968"/>
-        <c:axId val="-1680126512"/>
+        <c:axId val="599140944"/>
+        <c:axId val="599137136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1680125968"/>
+        <c:axId val="599140944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,12 +1211,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1680126512"/>
+        <c:crossAx val="599137136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1680126512"/>
+        <c:axId val="599137136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1273,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1680125968"/>
+        <c:crossAx val="599140944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2013,7 +2179,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,10 +2222,9 @@
       <c r="C2" s="4">
         <v>25</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,8 +2534,8 @@
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
-        <v>26</v>
+      <c r="F16" s="4">
+        <v>-78</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
